--- a/insumos-piezas.xlsx
+++ b/insumos-piezas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="4294901760"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>ESPESOR</t>
   </si>
@@ -34,8 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,37 +84,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -126,10 +117,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -167,71 +158,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,7 +250,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -282,11 +273,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -295,13 +286,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +302,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -320,7 +311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,10 +328,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -409,18 +400,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.6</v>
       </c>
@@ -442,7 +435,7 @@
         <v>10013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.6</v>
       </c>
@@ -453,7 +446,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.14</v>
       </c>
@@ -464,7 +457,7 @@
         <v>10013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.9</v>
       </c>
@@ -472,6 +465,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
         <v>20013</v>
       </c>
     </row>

--- a/insumos-piezas.xlsx
+++ b/insumos-piezas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="4294901760"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>ESPESOR</t>
   </si>
@@ -28,14 +28,90 @@
     <t>N</t>
   </si>
   <si>
+    <t>CHAN-0.7-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-0.9-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-1.2-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-1.6-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-2.1-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-3.2-1.50x3.00</t>
+  </si>
+  <si>
+    <t>CHAN-4.7-1.50x3.00</t>
+  </si>
+  <si>
+    <t>CHAN-6.3-1.50x3.00</t>
+  </si>
+  <si>
+    <t>CHAN-2.5-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAN-9.5-1.50x3.00</t>
+  </si>
+  <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>CHAG-0.7-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAG-0.9-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAG-1.2-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAG-1.6-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAG-2.1-1.22x2.44</t>
+  </si>
+  <si>
+    <t>CHAG-2.5-1.22x2.44</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>CHAI-0.7-1.00x2.00</t>
+  </si>
+  <si>
+    <t>CHAI-1.0-1.25x2.50</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CHAI-0.4-1.00x2.00</t>
+  </si>
+  <si>
+    <t>CHAI-1.5-1.25x2.50</t>
+  </si>
+  <si>
+    <t>CHAI-0.5-1.00x2.00</t>
+  </si>
+  <si>
+    <t>CHAI-2.0-1.25x2.50</t>
+  </si>
+  <si>
+    <t>CHAI-2.0-1.00x2.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +128,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4a4f59"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0d0d0d"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -83,30 +171,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,10 +225,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -158,71 +266,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -250,7 +358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -273,11 +381,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -286,13 +394,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -311,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -320,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,10 +436,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -400,20 +508,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,72 +540,523 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1">
         <v>0.9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1">
         <v>1.2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20013</v>
-      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
